--- a/Data_Sources_and_Preparation/ITC_Trade_Data/841850_CHN_all.xlsx
+++ b/Data_Sources_and_Preparation/ITC_Trade_Data/841850_CHN_all.xlsx
@@ -488,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM142"/>
+  <dimension ref="A1:AM145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16960,6 +16960,363 @@
         <v>2658</v>
       </c>
     </row>
+    <row r="143" spans="1:39">
+      <c r="A143">
+        <v>3683</v>
+      </c>
+      <c r="B143">
+        <v>87015</v>
+      </c>
+      <c r="C143">
+        <v>22889</v>
+      </c>
+      <c r="D143">
+        <v>6462</v>
+      </c>
+      <c r="E143">
+        <v>5013</v>
+      </c>
+      <c r="F143">
+        <v>2764</v>
+      </c>
+      <c r="G143">
+        <v>201801</v>
+      </c>
+      <c r="H143">
+        <v>2018</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>5063</v>
+      </c>
+      <c r="K143">
+        <v>1973</v>
+      </c>
+      <c r="L143">
+        <v>3003</v>
+      </c>
+      <c r="M143">
+        <v>3491</v>
+      </c>
+      <c r="N143">
+        <v>3923</v>
+      </c>
+      <c r="O143">
+        <v>97631</v>
+      </c>
+      <c r="P143">
+        <v>85245</v>
+      </c>
+      <c r="Q143">
+        <v>74822</v>
+      </c>
+      <c r="R143">
+        <v>77071</v>
+      </c>
+      <c r="S143">
+        <v>81627</v>
+      </c>
+      <c r="T143">
+        <v>20210</v>
+      </c>
+      <c r="U143">
+        <v>21111</v>
+      </c>
+      <c r="V143">
+        <v>17163</v>
+      </c>
+      <c r="W143">
+        <v>18750</v>
+      </c>
+      <c r="X143">
+        <v>21556</v>
+      </c>
+      <c r="Y143">
+        <v>7581</v>
+      </c>
+      <c r="Z143">
+        <v>7499</v>
+      </c>
+      <c r="AA143">
+        <v>5601</v>
+      </c>
+      <c r="AB143">
+        <v>6152</v>
+      </c>
+      <c r="AC143">
+        <v>8508</v>
+      </c>
+      <c r="AD143">
+        <v>4842</v>
+      </c>
+      <c r="AE143">
+        <v>3606</v>
+      </c>
+      <c r="AF143">
+        <v>2913</v>
+      </c>
+      <c r="AG143">
+        <v>1294</v>
+      </c>
+      <c r="AH143">
+        <v>4420</v>
+      </c>
+      <c r="AI143">
+        <v>7596</v>
+      </c>
+      <c r="AJ143">
+        <v>4013</v>
+      </c>
+      <c r="AK143">
+        <v>5386</v>
+      </c>
+      <c r="AL143">
+        <v>4054</v>
+      </c>
+      <c r="AM143">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:39">
+      <c r="A144">
+        <v>3274</v>
+      </c>
+      <c r="B144">
+        <v>80016</v>
+      </c>
+      <c r="C144">
+        <v>21051</v>
+      </c>
+      <c r="D144">
+        <v>6513</v>
+      </c>
+      <c r="E144">
+        <v>3637</v>
+      </c>
+      <c r="F144">
+        <v>2665</v>
+      </c>
+      <c r="G144">
+        <v>201802</v>
+      </c>
+      <c r="H144">
+        <v>2018</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144">
+        <v>3683</v>
+      </c>
+      <c r="K144">
+        <v>5063</v>
+      </c>
+      <c r="L144">
+        <v>1973</v>
+      </c>
+      <c r="M144">
+        <v>4837</v>
+      </c>
+      <c r="N144">
+        <v>1640</v>
+      </c>
+      <c r="O144">
+        <v>87015</v>
+      </c>
+      <c r="P144">
+        <v>97631</v>
+      </c>
+      <c r="Q144">
+        <v>85245</v>
+      </c>
+      <c r="R144">
+        <v>78286</v>
+      </c>
+      <c r="S144">
+        <v>49263</v>
+      </c>
+      <c r="T144">
+        <v>22889</v>
+      </c>
+      <c r="U144">
+        <v>20210</v>
+      </c>
+      <c r="V144">
+        <v>21111</v>
+      </c>
+      <c r="W144">
+        <v>15443</v>
+      </c>
+      <c r="X144">
+        <v>16832</v>
+      </c>
+      <c r="Y144">
+        <v>6462</v>
+      </c>
+      <c r="Z144">
+        <v>7581</v>
+      </c>
+      <c r="AA144">
+        <v>7499</v>
+      </c>
+      <c r="AB144">
+        <v>5895</v>
+      </c>
+      <c r="AC144">
+        <v>4827</v>
+      </c>
+      <c r="AD144">
+        <v>5013</v>
+      </c>
+      <c r="AE144">
+        <v>4842</v>
+      </c>
+      <c r="AF144">
+        <v>3606</v>
+      </c>
+      <c r="AG144">
+        <v>4094</v>
+      </c>
+      <c r="AH144">
+        <v>3179</v>
+      </c>
+      <c r="AI144">
+        <v>2764</v>
+      </c>
+      <c r="AJ144">
+        <v>7596</v>
+      </c>
+      <c r="AK144">
+        <v>4013</v>
+      </c>
+      <c r="AL144">
+        <v>2712</v>
+      </c>
+      <c r="AM144">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="145" spans="1:39">
+      <c r="A145">
+        <v>3158</v>
+      </c>
+      <c r="B145">
+        <v>79368</v>
+      </c>
+      <c r="C145">
+        <v>19995</v>
+      </c>
+      <c r="D145">
+        <v>7060</v>
+      </c>
+      <c r="E145">
+        <v>5276</v>
+      </c>
+      <c r="F145">
+        <v>4086</v>
+      </c>
+      <c r="G145">
+        <v>201803</v>
+      </c>
+      <c r="H145">
+        <v>2018</v>
+      </c>
+      <c r="I145">
+        <v>3</v>
+      </c>
+      <c r="J145">
+        <v>3274</v>
+      </c>
+      <c r="K145">
+        <v>3683</v>
+      </c>
+      <c r="L145">
+        <v>5063</v>
+      </c>
+      <c r="M145">
+        <v>3226</v>
+      </c>
+      <c r="N145">
+        <v>3269</v>
+      </c>
+      <c r="O145">
+        <v>80016</v>
+      </c>
+      <c r="P145">
+        <v>87015</v>
+      </c>
+      <c r="Q145">
+        <v>97631</v>
+      </c>
+      <c r="R145">
+        <v>76128</v>
+      </c>
+      <c r="S145">
+        <v>79018</v>
+      </c>
+      <c r="T145">
+        <v>21051</v>
+      </c>
+      <c r="U145">
+        <v>22889</v>
+      </c>
+      <c r="V145">
+        <v>20210</v>
+      </c>
+      <c r="W145">
+        <v>17303</v>
+      </c>
+      <c r="X145">
+        <v>20244</v>
+      </c>
+      <c r="Y145">
+        <v>6513</v>
+      </c>
+      <c r="Z145">
+        <v>6462</v>
+      </c>
+      <c r="AA145">
+        <v>7581</v>
+      </c>
+      <c r="AB145">
+        <v>5355</v>
+      </c>
+      <c r="AC145">
+        <v>8144</v>
+      </c>
+      <c r="AD145">
+        <v>3637</v>
+      </c>
+      <c r="AE145">
+        <v>5013</v>
+      </c>
+      <c r="AF145">
+        <v>4842</v>
+      </c>
+      <c r="AG145">
+        <v>3604</v>
+      </c>
+      <c r="AH145">
+        <v>3976</v>
+      </c>
+      <c r="AI145">
+        <v>2665</v>
+      </c>
+      <c r="AJ145">
+        <v>2764</v>
+      </c>
+      <c r="AK145">
+        <v>7596</v>
+      </c>
+      <c r="AL145">
+        <v>2127</v>
+      </c>
+      <c r="AM145">
+        <v>2408</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
